--- a/outputs/mod_9.xlsx
+++ b/outputs/mod_9.xlsx
@@ -482,19 +482,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-5.740781219820672</v>
+        <v>0.243965034379913</v>
       </c>
       <c r="E2" t="n">
-        <v>2.209008338994679</v>
+        <v>0.2421499445156177</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.598804684654701</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.007495726946897</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,19 +507,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.669468471062546</v>
+        <v>0.200050210670175</v>
       </c>
       <c r="E3" t="n">
-        <v>1.014873957326537</v>
+        <v>0.188528149464521</v>
       </c>
       <c r="F3" t="n">
-        <v>4.601032903990598</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.061115866454852</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,15 +532,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.107079079676552</v>
+        <v>18.35830640078114</v>
       </c>
       <c r="E4" t="n">
-        <v>1.616771705762313</v>
+        <v>0.4854697757126806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6847466935070838</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>37.8155496371133</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,15 +561,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-1.119354509741254</v>
+        <v>30.69055836195705</v>
       </c>
       <c r="E5" t="n">
-        <v>2.776325406753864</v>
+        <v>0.2889178326858676</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4031784267860827</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>106.2259053954833</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-9.405324821171774</v>
+        <v>17.34502492610935</v>
       </c>
       <c r="E6" t="n">
-        <v>3.277711714632235</v>
+        <v>0.152492758945449</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.869478965823896</v>
+        <v>113.7432691627945</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -619,15 +619,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.331368316509056</v>
+        <v>17.10177077288228</v>
       </c>
       <c r="E7" t="n">
-        <v>1.241471503322287</v>
+        <v>0.1344398328275988</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2669157653818756</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>127.2076170669821</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -644,15 +648,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-12.87895325921684</v>
+        <v>15.44684005048888</v>
       </c>
       <c r="E8" t="n">
-        <v>9.81357458504981</v>
+        <v>0.4775623640531353</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.312361071656488</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>32.34517879380087</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -669,17 +677,17 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-11.83680325516227</v>
+        <v>-0.400855658366808</v>
       </c>
       <c r="E9" t="n">
-        <v>3.525251649788454</v>
+        <v>0.1573014279565219</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.357718662686841</v>
+        <v>-2.548328159345155</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -698,15 +706,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.5458469537970372</v>
+        <v>-2.872994112068147</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8388934141979036</v>
+        <v>0.4411273470043209</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6506749779636084</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-6.51284517175945</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -723,15 +735,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7934049747806732</v>
+        <v>-1.084245209554077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5248986433354151</v>
+        <v>0.2617491901192726</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51153938927916</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>-4.142305880908414</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -748,13 +764,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-64.00615046502753</v>
+        <v>-30.2541699308499</v>
       </c>
       <c r="E12" t="n">
-        <v>20.63974707619759</v>
+        <v>3.925330678156456</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.101111182648234</v>
+        <v>-7.707419428178945</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -777,13 +793,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.190888930902907</v>
+        <v>-0.007018403132225151</v>
       </c>
       <c r="E13" t="n">
-        <v>2.046705819675983</v>
+        <v>0.9401157145846819</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5818564248238851</v>
+        <v>-0.007465467307208767</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -802,13 +818,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.1460661016493323</v>
+        <v>-0.02210537913926483</v>
       </c>
       <c r="E14" t="n">
-        <v>3.037113321350919</v>
+        <v>1.407403699168058</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04809372789039087</v>
+        <v>-0.01570649498245011</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -827,13 +843,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1.446376629567263</v>
+        <v>-0.1364663984760718</v>
       </c>
       <c r="E15" t="n">
-        <v>4.099502682490093</v>
+        <v>0.7638141805497372</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3528175833973876</v>
+        <v>-0.1786643950205969</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -852,13 +868,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.381341144450748</v>
+        <v>-0.01221233980957888</v>
       </c>
       <c r="E16" t="n">
-        <v>2.975746266141036</v>
+        <v>2.18436717293953</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4641999084962573</v>
+        <v>-0.005590790761218309</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -877,13 +893,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.43914647835983</v>
+        <v>0.005136710455699182</v>
       </c>
       <c r="E17" t="n">
-        <v>1.952875865249752</v>
+        <v>5.165210202958221</v>
       </c>
       <c r="F17" t="n">
-        <v>1.249002315898809</v>
+        <v>0.0009944823644848534</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -902,19 +918,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.550363400721224</v>
+        <v>0.01428622459263415</v>
       </c>
       <c r="E18" t="n">
-        <v>2.717736966867258</v>
+        <v>2.864192558191707</v>
       </c>
       <c r="F18" t="n">
-        <v>3.514086726255173</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.004987871556252379</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -931,13 +943,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.580114056089107</v>
+        <v>0.03663268352847782</v>
       </c>
       <c r="E19" t="n">
-        <v>8.045590005305931</v>
+        <v>4.592881434576367</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8178535137571804</v>
+        <v>0.007975969780690997</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -956,13 +968,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.390956389824709</v>
+        <v>-0.009899735631251178</v>
       </c>
       <c r="E20" t="n">
-        <v>3.491912854014932</v>
+        <v>2.418436913568415</v>
       </c>
       <c r="F20" t="n">
-        <v>1.257464482475866</v>
+        <v>-0.004093443817248089</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -981,13 +993,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-1.071013052426463</v>
+        <v>0.05062723328861799</v>
       </c>
       <c r="E21" t="n">
-        <v>4.145901407385589</v>
+        <v>3.88201990806965</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2583305648606452</v>
+        <v>0.01304146668165661</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1006,13 +1018,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.1514158527868225</v>
+        <v>0.006077626580229102</v>
       </c>
       <c r="E22" t="n">
-        <v>3.520297754604401</v>
+        <v>1.570119052163537</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0430122288913706</v>
+        <v>0.003870806211703801</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1031,13 +1043,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.128911454566303</v>
+        <v>-0.1433030161481881</v>
       </c>
       <c r="E23" t="n">
-        <v>24.70738968193201</v>
+        <v>19.60362623862181</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08616496853664514</v>
+        <v>-0.007310025931113791</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1107,13 +1119,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.609109209726858</v>
+        <v>-0.09345313422151985</v>
       </c>
       <c r="E2" t="n">
-        <v>21.62466790584275</v>
+        <v>2.701015836852506</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07441081716182538</v>
+        <v>-0.03459925445325074</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1132,13 +1144,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.397327707365596</v>
+        <v>0.1939807135245914</v>
       </c>
       <c r="E3" t="n">
-        <v>8.57556740445097</v>
+        <v>2.165868905767835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2795532463684342</v>
+        <v>0.08956253677589142</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1157,15 +1169,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.962118369130525</v>
+        <v>14.60374645785045</v>
       </c>
       <c r="E4" t="n">
-        <v>25.47209576477654</v>
+        <v>7.231086395728178</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0770301111950039</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>2.019578478066273</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1182,15 +1198,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.655280724022631</v>
+        <v>34.43555654508342</v>
       </c>
       <c r="E5" t="n">
-        <v>35.34919390056</v>
+        <v>5.231812397286894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.103404924432088</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>6.581955530924803</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1207,15 +1227,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1.853188253789791</v>
+        <v>14.75242822869868</v>
       </c>
       <c r="E6" t="n">
-        <v>12.56596084315618</v>
+        <v>5.502536024582744</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1474768445422219</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>2.681023470412872</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1232,15 +1256,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.013460091347802</v>
+        <v>15.22740361247281</v>
       </c>
       <c r="E7" t="n">
-        <v>15.46881696705605</v>
+        <v>5.569423334090112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1948086978962625</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>2.734107770057048</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1257,15 +1285,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-3.978758353644066</v>
+        <v>17.88358523270585</v>
       </c>
       <c r="E8" t="n">
-        <v>39.31861585915689</v>
+        <v>10.37552603695597</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1011927369950246</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>1.723631666385625</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1282,13 +1314,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-5.955932207497755</v>
+        <v>-0.6193527663125644</v>
       </c>
       <c r="E9" t="n">
-        <v>10.14837956500521</v>
+        <v>1.479653839385523</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.586885045966912</v>
+        <v>-0.4185795013851158</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1307,13 +1339,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.120355485027302</v>
+        <v>1.205781268555755</v>
       </c>
       <c r="E10" t="n">
-        <v>37.76746293000104</v>
+        <v>6.428317061436832</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08262020381963783</v>
+        <v>0.1875733970542897</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1332,13 +1364,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.751955907851196</v>
+        <v>0.07364450775753352</v>
       </c>
       <c r="E11" t="n">
-        <v>14.5026506864536</v>
+        <v>4.414613611974107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1897553741966423</v>
+        <v>0.01668198266724446</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1357,13 +1389,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.879384578512121</v>
+        <v>0.7164468251823013</v>
       </c>
       <c r="E12" t="n">
-        <v>175.3857392621555</v>
+        <v>44.85412578889901</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01071572059631904</v>
+        <v>0.01597281883397258</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1382,13 +1414,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9633356166278455</v>
+        <v>-0.009232718840407378</v>
       </c>
       <c r="E13" t="n">
-        <v>31.00135214223775</v>
+        <v>28.94653697355681</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03107398710249642</v>
+        <v>-0.0003189576303666872</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1407,13 +1439,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1581715988553013</v>
+        <v>0.006090441540169226</v>
       </c>
       <c r="E14" t="n">
-        <v>31.55621988482537</v>
+        <v>26.13054957714986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005012374721452688</v>
+        <v>0.0002330774376630439</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1432,13 +1464,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.5376261360682022</v>
+        <v>0.01374698787820011</v>
       </c>
       <c r="E15" t="n">
-        <v>38.43536577241619</v>
+        <v>15.1932658631129</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01398779809333931</v>
+        <v>0.0009048079591350965</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1457,13 +1489,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8037767702169897</v>
+        <v>-0.05650386905131654</v>
       </c>
       <c r="E16" t="n">
-        <v>48.37869904200821</v>
+        <v>59.6323736410077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01661427004308351</v>
+        <v>-0.0009475368093088991</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1482,13 +1514,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.311737062405751</v>
+        <v>0.01177833506254869</v>
       </c>
       <c r="E17" t="n">
-        <v>43.19634199173728</v>
+        <v>30.17120162614893</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03036685519937462</v>
+        <v>0.0003903833598838364</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1507,13 +1539,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.977137145653321</v>
+        <v>-0.01273251197625362</v>
       </c>
       <c r="E18" t="n">
-        <v>22.94197157562215</v>
+        <v>29.052522454875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2605328459217756</v>
+        <v>-0.0004382583989404028</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1532,13 +1564,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.3897955958355697</v>
+        <v>-0.008345245439672156</v>
       </c>
       <c r="E19" t="n">
-        <v>70.85920470326815</v>
+        <v>88.66744652284896</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.005500987450647914</v>
+        <v>-9.411848166307175e-05</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1557,13 +1589,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.581375503004765</v>
+        <v>0.02296345026664178</v>
       </c>
       <c r="E20" t="n">
-        <v>40.06682079409432</v>
+        <v>14.5619491884137</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06442676139119202</v>
+        <v>0.001576948935168157</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1582,13 +1614,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.999553339133509</v>
+        <v>0.04951562503850793</v>
       </c>
       <c r="E21" t="n">
-        <v>71.34079211883017</v>
+        <v>42.02656494726421</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02802819088135319</v>
+        <v>0.001178198244387595</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1607,13 +1639,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5110470688864814</v>
+        <v>-0.005699774396589575</v>
       </c>
       <c r="E22" t="n">
-        <v>34.28729582705661</v>
+        <v>27.29086142550827</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01490485197386744</v>
+        <v>-0.0002088528576552039</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1632,13 +1664,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.277651513095475</v>
+        <v>0.04249530843591615</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3260100668268</v>
+        <v>163.7243966347052</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02514963445450993</v>
+        <v>0.0002595539168834431</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1726,34 +1758,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.487212957247854</v>
+        <v>-20.34713456668831</v>
       </c>
       <c r="D2" t="n">
-        <v>3.715897306344253</v>
+        <v>5.523410313662475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01333433392855584</v>
+        <v>1.050878567752065</v>
       </c>
       <c r="F2" t="n">
-        <v>1.207375945784932</v>
+        <v>4.459218279673952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1095309333065047</v>
+        <v>1.000788572244813e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>2.176456080096119</v>
+        <v>0.3765551550158812</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0333273608710335</v>
+        <v>3.22235569015839</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8437314004236719</v>
+        <v>5.715147731808045</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006645334474749147</v>
+        <v>5.003942861224065e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3815676759615303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1764,34 +1796,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.032569105319866</v>
+        <v>5.228517621029284</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.524540067061722</v>
+        <v>-19.80006065137758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02804753512988763</v>
+        <v>1.028324113319993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3546786690082644</v>
+        <v>4.370825931826981</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1962013462982052</v>
+        <v>9.510596743702256e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7302175957661959</v>
+        <v>0.3653227927905131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05891575951341382</v>
+        <v>3.144287908998332</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9994637048722881</v>
+        <v>5.663146281334461</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001083633518865883</v>
+        <v>8.326397927365788e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1234567773136791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1802,34 +1834,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9766342803933999</v>
+        <v>6.517368883298785</v>
       </c>
       <c r="D4" t="n">
-        <v>6.385451951487991</v>
+        <v>6.737206192127421</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.89112896957793</v>
+        <v>-30.24717365988662</v>
       </c>
       <c r="F4" t="n">
-        <v>0.625902036834679</v>
+        <v>5.431981847251101</v>
       </c>
       <c r="G4" t="n">
-        <v>3.594379285758066</v>
+        <v>7.940666115572115e-08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7931904965997594</v>
+        <v>0.4776727808831633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.437695220169917</v>
+        <v>3.954916164356713</v>
       </c>
       <c r="J4" t="n">
-        <v>2.873109127490522</v>
+        <v>7.126867894929904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003389136063488615</v>
+        <v>5.849421985898542e-08</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1840399045773848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1840,34 +1872,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.500449220135315</v>
+        <v>5.457993056606298</v>
       </c>
       <c r="D5" t="n">
-        <v>3.687136735296095</v>
+        <v>5.651530380189193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02592219366593047</v>
+        <v>1.072045000827276</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.92223961205423</v>
+        <v>-21.70025447329776</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2120509857216634</v>
+        <v>1.148385503319546e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>2.641111585845727</v>
+        <v>0.382160006995904</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0878302002176056</v>
+        <v>3.278291495606885</v>
       </c>
       <c r="J5" t="n">
-        <v>1.005999955785076</v>
+        <v>5.858671067298476</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01958682981729026</v>
+        <v>9.187084026556365e-08</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7420966247651171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1878,34 +1910,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.183568161614125</v>
+        <v>6.492996445796712</v>
       </c>
       <c r="D6" t="n">
-        <v>7.503220436193158</v>
+        <v>6.628422460373256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.573405584147558</v>
+        <v>1.322982644413195</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7855831072887036</v>
+        <v>5.428434983132736</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.46775364476233</v>
+        <v>-31.24178419309742</v>
       </c>
       <c r="H6" t="n">
-        <v>0.782342183630803</v>
+        <v>0.4668500408468549</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2029589700645775</v>
+        <v>3.933566778603685</v>
       </c>
       <c r="J6" t="n">
-        <v>1.883434362010024</v>
+        <v>6.967379630514251</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09922765361158233</v>
+        <v>1.005596101581677e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4521567440621759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1916,34 +1948,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.623915165852706</v>
+        <v>6.631759631356138</v>
       </c>
       <c r="D7" t="n">
-        <v>4.376781200494824</v>
+        <v>6.796815273051355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01783234207947319</v>
+        <v>1.356465561101681</v>
       </c>
       <c r="F7" t="n">
-        <v>1.516563605874104</v>
+        <v>5.498830697045469</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201315940698226</v>
+        <v>5.562072963341938e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.24272707020412</v>
+        <v>-31.52738719399185</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07871556727497996</v>
+        <v>4.076496218667398</v>
       </c>
       <c r="J7" t="n">
-        <v>1.016362859949495</v>
+        <v>7.165821530851693</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001322247895035742</v>
+        <v>6.196816299584054e-08</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4910260056019655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1954,34 +1986,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1.787982907040012</v>
+        <v>6.582710210978137</v>
       </c>
       <c r="D8" t="n">
-        <v>11.11479316976414</v>
+        <v>6.785507735809908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3143400153170524</v>
+        <v>1.302712517528196</v>
       </c>
       <c r="F8" t="n">
-        <v>1.58477876285809</v>
+        <v>5.471475990014991</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9764950724898257</v>
+        <v>7.727310486096206e-08</v>
       </c>
       <c r="H8" t="n">
-        <v>2.514367359937576</v>
+        <v>0.4728458020745356</v>
       </c>
       <c r="I8" t="n">
-        <v>-23.62925412761092</v>
+        <v>-27.74342927732729</v>
       </c>
       <c r="J8" t="n">
-        <v>4.380841876692194</v>
+        <v>7.125512083686487</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003579097081886897</v>
+        <v>1.405691623310525e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9435641204569354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1992,34 +2024,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.294898064774291</v>
+        <v>5.173042084053166</v>
       </c>
       <c r="D9" t="n">
-        <v>5.516299474054192</v>
+        <v>5.415080740732947</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06424654140292919</v>
+        <v>1.040153230363294</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5317430284008889</v>
+        <v>4.332551300352915</v>
       </c>
       <c r="G9" t="n">
-        <v>0.268683419793788</v>
+        <v>8.103216961019029e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9367360399674391</v>
+        <v>0.3682853975278499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1271332510391522</v>
+        <v>3.157209813066316</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.983648152198642</v>
+        <v>-19.48595953410342</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000373403544952684</v>
+        <v>4.564694270617707e-08</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2435750489495175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2030,34 +2062,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.428076419604399</v>
+        <v>6.495736447360708</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2926639468994648</v>
+        <v>6.771691452380122</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00398275611968779</v>
+        <v>1.324493797540752</v>
       </c>
       <c r="F10" t="n">
-        <v>2.198356850383369</v>
+        <v>5.442395095200443</v>
       </c>
       <c r="G10" t="n">
-        <v>2.900953779190562</v>
+        <v>1.146943751749822e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5890499420445949</v>
+        <v>0.4743291754840708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1825864830168156</v>
+        <v>3.93785444086409</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4073291175025717</v>
+        <v>7.085095822791854</v>
       </c>
       <c r="K10" t="n">
-        <v>-8.965350670823618</v>
+        <v>-31.53278060958679</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4756739796700724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2068,34 +2100,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>3.394986948780347</v>
+        <v>5.937584189897787</v>
       </c>
       <c r="D11" t="n">
-        <v>3.90444351408758</v>
+        <v>6.13456572133033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02271257356934505</v>
+        <v>1.200575079975325</v>
       </c>
       <c r="F11" t="n">
-        <v>2.27465449830075</v>
+        <v>4.939294783730189</v>
       </c>
       <c r="G11" t="n">
-        <v>0.374882874785442</v>
+        <v>1.337103494083205e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>2.625094322248172</v>
+        <v>0.4242432605831554</v>
       </c>
       <c r="I11" t="n">
-        <v>0.162662980108081</v>
+        <v>3.599086463882253</v>
       </c>
       <c r="J11" t="n">
-        <v>1.416576170869989</v>
+        <v>6.333267201892594</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01233421574222697</v>
+        <v>6.695963591463552e-08</v>
       </c>
       <c r="L11" t="n">
-        <v>-14.18944133495318</v>
+        <v>-28.56812493520537</v>
       </c>
     </row>
   </sheetData>
